--- a/Week 8/DB-Assign_8-DatabaseDesign-III-DERYNBOSCARIOL-24W.xlsx
+++ b/Week 8/DB-Assign_8-DatabaseDesign-III-DERYNBOSCARIOL-24W.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derynboscariol/Desktop/School/HTTP5126Database/Week 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8904152-67B5-774D-A021-3D112EE01080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A0193D-D31D-3548-BE72-2DB226A25854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="29400" windowHeight="16840" xr2:uid="{2C057F09-2FCD-45B5-8D94-8CEE77C82641}"/>
   </bookViews>
   <sheets>
     <sheet name="Part I" sheetId="1" r:id="rId1"/>
-    <sheet name="queries " sheetId="2" r:id="rId2"/>
+    <sheet name="CREATE TABLE librariansxassignm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +36,40 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>librarian_fname</t>
   </si>
@@ -147,12 +179,6 @@
     <t xml:space="preserve">What is Beverly Cleary’s assignment for the day? </t>
   </si>
   <si>
-    <t>1NF</t>
-  </si>
-  <si>
-    <t>2NF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please show your work: </t>
   </si>
   <si>
@@ -192,9 +218,6 @@
     <t>assignments</t>
   </si>
   <si>
-    <t>librariansxassignments</t>
-  </si>
-  <si>
     <t>wed_1</t>
   </si>
   <si>
@@ -210,9 +233,6 @@
     <t>tue_2</t>
   </si>
   <si>
-    <t>wed_3</t>
-  </si>
-  <si>
     <t>morn</t>
   </si>
   <si>
@@ -228,18 +248,9 @@
     <t>assign_id (primary key)</t>
   </si>
   <si>
-    <t>librarian_id (foreign key)</t>
-  </si>
-  <si>
-    <t>assignment_id (foreign key)</t>
-  </si>
-  <si>
     <t>shifts</t>
   </si>
   <si>
-    <t>shift_id</t>
-  </si>
-  <si>
     <t>shift_time</t>
   </si>
   <si>
@@ -249,14 +260,112 @@
     <t>wed_2</t>
   </si>
   <si>
-    <t>shift_id (foreign key)</t>
+    <t xml:space="preserve"> INSERT INTO librarians (librarian_fname, librarian_surname)
+VALUES
+("Jesse", "Shera"),("Ann Carroll", "Moore"),("Beverly", "Cleary"),("Marcel", "Duchamp"),("Audre", "Lorde"),("Carla","Hayden"),("Ardelia", "Lortz"),("Mary", "Ahem"),("Dolly","Parton");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE librarians (
+    librarian_id INT(3) PRIMARY KEY NOT NULL AUTO_INCREMENT,
+    librarian_fname VARCHAR(50),
+    librarian_surname VARCHAR(50)
+    );  </t>
+  </si>
+  <si>
+    <t>ALTER TABLE librarians AUTO_INCREMENT=101;</t>
+  </si>
+  <si>
+    <t>assignment_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE assignments (
+    assignment_id INT(3) PRIMARY KEY NOT NULL AUTO_INCREMENT,
+    assignment_name VARCHAR(50)); </t>
+  </si>
+  <si>
+    <t>INSERT INTO assignments (assignment_name)
+VALUES
+("main desk"), ("catalogue"),("children's library"),("reference");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE shifts (
+    shift_id INT(3) PRIMARY KEY NOT NULL AUTO_INCREMENT,
+    shift_day VARCHAR(50),
+    shift_time VARCHAR(50)
+    );  </t>
+  </si>
+  <si>
+    <t>ALTER TABLE shifts AUTO_INCREMENT=10;</t>
+  </si>
+  <si>
+    <t>INSERT INTO shifts (shift_day, shift_time)
+VALUES
+("mon_1", "morn"),("mon_1", "aft"),("tue_1", "morn"),("tue_1", "aft"),("wed_1", "morn"),("wed_1","aft"),("mon_2", "morn"),("mon_2", "aft"),("tue_2","morn"),("tue_2","aft"),("wed_2","morn");</t>
+  </si>
+  <si>
+    <t>librariansxassignmentsxshifts</t>
+  </si>
+  <si>
+    <t>CREATE TABLE librariansxassignmentsxshifts (
+    assign_id INT(4) PRIMARY KEY AUTO_INCREMENT,
+    librarian INT(3),
+    assignment INT(3),
+    shift INT(3),
+    FOREIGN KEY (librarian)
+    REFERENCES librarians(librarian_id),
+    FOREIGN KEY (assignment)
+    REFERENCES assignments(assignment_id),
+    FOREIGN KEY (shift)
+    REFERENCES shifts(shift_id)
+    ON DELETE CASCADE
+);</t>
+  </si>
+  <si>
+    <t>INSERT INTO librariansxassignmentsxshifts (librarian, assignment, shift)
+VALUES (101,1,10),(101,2,10),(102,3,11),(103,4,11),(103,2,10),(104,1,12),(104,4,12),(105,1,13),(105,2,13),(106,1,14),(106,2,14),(107,4,15),(108,1,16),(108,4,16),(109,3,16),(103,4,16),(103,2,16),(104,1,17),(104,3,17),(106,1,18),(106,2,18),(105,1,19),(105,1,19);</t>
+  </si>
+  <si>
+    <t>ALTER TABLE librariansxassignmentsxshifts AUTO_INCREMENT=1001;</t>
+  </si>
+  <si>
+    <t>librarian (foreign key)</t>
+  </si>
+  <si>
+    <t>assignment (foreign key)</t>
+  </si>
+  <si>
+    <t>shift (foreign key)</t>
+  </si>
+  <si>
+    <t>SELECT librarian_fname, librarian_surname, shift_time
+FROM librarians 
+JOIN librariansxassignmentsxshifts 
+ON librarians.librarian_id = librariansxassignmentsxshifts.librarian 
+JOIN shifts
+ON shifts.shift_id = librariansxassignmentsxshifts.shift
+WHERE librariansxassignmentsxshifts.shift = 10 OR librariansxassignmentsxshifts.shift = 11 OR librariansxassignmentsxshifts.shift = 16 OR librariansxassignmentsxshifts.shift = 17;</t>
+  </si>
+  <si>
+    <t>SELECT librarian_fname, librarian_surname, assignment_name
+FROM librarians 
+JOIN librariansxassignmentsxshifts 
+ON librarians.librarian_id = librariansxassignmentsxshifts.librarian 
+JOIN assignments
+ON assignments.assignment_id = librariansxassignmentsxshifts.assignment
+WHERE librarians.librarian_fname= "Beverly";</t>
+  </si>
+  <si>
+    <t>1NF + 2NF</t>
+  </si>
+  <si>
+    <t>shift_id (primary key)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +411,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +444,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -371,12 +514,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB9C2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -386,6 +557,300 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3289655</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>965200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE94C88-527C-8004-7464-ACD038561385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14363701" y="520700"/>
+          <a:ext cx="2680054" cy="2501900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3073400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF21A45B-8FD8-9517-EBA8-FB62086D2322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14490700" y="3341188"/>
+          <a:ext cx="2336800" cy="1535611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1130300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2832100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8BA152-58BC-C2AD-AB5E-41A1CD8EA491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13919200" y="5255921"/>
+          <a:ext cx="1701800" cy="2960979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1117600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7990FE75-C8E5-BEA6-8DB9-3915EC855B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12928600" y="8572500"/>
+          <a:ext cx="2298700" cy="4597400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2540000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3022600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>424966</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1041400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFE3887-35E7-BC77-A584-D76EE824FAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15328900" y="11531600"/>
+          <a:ext cx="2037866" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,23 +1152,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD240CF-49FA-412E-926B-EFC4C3215D5A}">
   <dimension ref="A1:BP43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="139" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -946,28 +1411,28 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>0</v>
@@ -976,30 +1441,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
-        <v>61</v>
+      <c r="E19" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="19">
         <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1009,63 +1472,59 @@
         <v>6</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="9">
+      <c r="E20" s="21">
         <v>1</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="9">
+        <v>46</v>
+      </c>
+      <c r="H20" s="21">
         <v>1000</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="24">
         <v>101</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="24">
         <v>1</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="24">
         <v>10</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="19">
         <v>102</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="9">
+      <c r="E21" s="21">
         <v>2</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="9">
+        <v>47</v>
+      </c>
+      <c r="H21" s="21">
         <v>1001</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="24">
         <v>101</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="24">
         <v>2</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="24">
         <v>10</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="19">
         <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1075,30 +1534,28 @@
         <v>13</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="9">
+      <c r="E22" s="21">
         <v>3</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="21">
         <v>1002</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="24">
         <v>102</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="24">
         <v>3</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="24">
         <v>11</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="19">
         <v>104</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1108,30 +1565,28 @@
         <v>16</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="9">
+      <c r="E23" s="21">
         <v>4</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="21">
         <v>1003</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="24">
         <v>103</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="24">
         <v>4</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="24">
         <v>11</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="19">
         <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1141,24 +1596,22 @@
         <v>20</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="H24" s="9">
+      <c r="H24" s="21">
         <v>1004</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="24">
         <v>103</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="24">
         <v>2</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="K24" s="24">
+        <v>10</v>
+      </c>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="19">
         <v>106</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1168,24 +1621,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="H25" s="9">
+      <c r="H25" s="21">
         <v>1005</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="24">
         <v>104</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="24">
         <v>1</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="K25" s="24">
+        <v>12</v>
+      </c>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="19">
         <v>107</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1195,51 +1646,47 @@
         <v>25</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="H26" s="9">
+      <c r="H26" s="21">
         <v>1006</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="24">
         <v>104</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="24">
         <v>4</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="K26" s="24">
+        <v>12</v>
+      </c>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="19">
         <v>108</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="H27" s="9">
+      <c r="H27" s="21">
         <v>1007</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="24">
         <v>105</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="24">
         <v>1</v>
       </c>
-      <c r="K27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="K27" s="24">
+        <v>13</v>
+      </c>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:68" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="20">
         <v>109</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1252,21 +1699,19 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28" s="9">
+      <c r="H28" s="21">
         <v>1008</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="24">
         <v>105</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="24">
         <v>2</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="K28" s="24">
+        <v>13</v>
+      </c>
+      <c r="L28" s="14"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
@@ -1325,358 +1770,328 @@
       <c r="BP28"/>
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="H29" s="9">
+      <c r="H29" s="21">
         <v>1009</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="24">
         <v>106</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="24">
         <v>1</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="K29" s="24">
+        <v>14</v>
+      </c>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="9">
+        <v>59</v>
+      </c>
+      <c r="H30" s="21">
         <v>1010</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="24">
         <v>106</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="24">
         <v>2</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="24">
+        <v>14</v>
+      </c>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="21">
+        <v>1011</v>
+      </c>
+      <c r="I31" s="24">
+        <v>107</v>
+      </c>
+      <c r="J31" s="24">
+        <v>4</v>
+      </c>
+      <c r="K31" s="24">
+        <v>15</v>
+      </c>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="21">
+        <v>1012</v>
+      </c>
+      <c r="I32" s="24">
+        <v>108</v>
+      </c>
+      <c r="J32" s="24">
+        <v>1</v>
+      </c>
+      <c r="K32" s="24">
+        <v>16</v>
+      </c>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>11</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="21">
+        <v>1013</v>
+      </c>
+      <c r="I33" s="24">
+        <v>108</v>
+      </c>
+      <c r="J33" s="24">
+        <v>4</v>
+      </c>
+      <c r="K33" s="24">
+        <v>16</v>
+      </c>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="21">
+        <v>1014</v>
+      </c>
+      <c r="I34" s="24">
+        <v>109</v>
+      </c>
+      <c r="J34" s="24">
+        <v>3</v>
+      </c>
+      <c r="K34" s="24">
+        <v>16</v>
+      </c>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
+        <v>13</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="21">
+        <v>1015</v>
+      </c>
+      <c r="I35" s="24">
+        <v>103</v>
+      </c>
+      <c r="J35" s="24">
+        <v>4</v>
+      </c>
+      <c r="K35" s="24">
+        <v>16</v>
+      </c>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
+        <v>14</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="21">
+        <v>1016</v>
+      </c>
+      <c r="I36" s="24">
+        <v>103</v>
+      </c>
+      <c r="J36" s="24">
+        <v>2</v>
+      </c>
+      <c r="K36" s="24">
+        <v>16</v>
+      </c>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>15</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="21">
+        <v>1017</v>
+      </c>
+      <c r="I37" s="24">
+        <v>104</v>
+      </c>
+      <c r="J37" s="24">
+        <v>1</v>
+      </c>
+      <c r="K37" s="24">
+        <v>18</v>
+      </c>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1011</v>
-      </c>
-      <c r="I31" s="9">
-        <v>107</v>
-      </c>
-      <c r="J31" s="9">
-        <v>4</v>
-      </c>
-      <c r="K31" s="9" t="s">
+      <c r="C38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1018</v>
+      </c>
+      <c r="I38" s="24">
+        <v>104</v>
+      </c>
+      <c r="J38" s="24">
+        <v>3</v>
+      </c>
+      <c r="K38" s="24">
+        <v>18</v>
+      </c>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
+        <v>17</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>10</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1019</v>
+      </c>
+      <c r="I39" s="24">
+        <v>106</v>
+      </c>
+      <c r="J39" s="24">
+        <v>1</v>
+      </c>
+      <c r="K39" s="24">
+        <v>19</v>
+      </c>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
+        <v>18</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="9">
-        <v>1012</v>
-      </c>
-      <c r="I32" s="9">
-        <v>108</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="H40" s="21">
+        <v>1020</v>
+      </c>
+      <c r="I40" s="24">
+        <v>106</v>
+      </c>
+      <c r="J40" s="24">
+        <v>2</v>
+      </c>
+      <c r="K40" s="24">
+        <v>19</v>
+      </c>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>19</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="21">
+        <v>1021</v>
+      </c>
+      <c r="I41" s="24">
+        <v>105</v>
+      </c>
+      <c r="J41" s="24">
         <v>1</v>
       </c>
-      <c r="K32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>11</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="K41" s="24">
+        <v>20</v>
+      </c>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>20</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="9">
-        <v>1013</v>
-      </c>
-      <c r="I33" s="9">
-        <v>108</v>
-      </c>
-      <c r="J33" s="9">
-        <v>4</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>12</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="9">
-        <v>1014</v>
-      </c>
-      <c r="I34" s="9">
-        <v>109</v>
-      </c>
-      <c r="J34" s="9">
-        <v>3</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>13</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1015</v>
-      </c>
-      <c r="I35" s="9">
-        <v>103</v>
-      </c>
-      <c r="J35" s="9">
-        <v>4</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>14</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="9">
-        <v>1016</v>
-      </c>
-      <c r="I36" s="9">
-        <v>103</v>
-      </c>
-      <c r="J36" s="9">
-        <v>2</v>
-      </c>
-      <c r="K36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>15</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1017</v>
-      </c>
-      <c r="I37" s="9">
-        <v>104</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="H42" s="21">
+        <v>1022</v>
+      </c>
+      <c r="I42" s="24">
+        <v>105</v>
+      </c>
+      <c r="J42" s="24">
         <v>1</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>16</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="9">
-        <v>1018</v>
-      </c>
-      <c r="I38" s="9">
-        <v>104</v>
-      </c>
-      <c r="J38" s="9">
-        <v>3</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>17</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1019</v>
-      </c>
-      <c r="I39" s="9">
-        <v>106</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>18</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1020</v>
-      </c>
-      <c r="I40" s="9">
-        <v>106</v>
-      </c>
-      <c r="J40" s="9">
-        <v>2</v>
-      </c>
-      <c r="K40" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>19</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="9">
-        <v>1021</v>
-      </c>
-      <c r="I41" s="9">
-        <v>105</v>
-      </c>
-      <c r="J41" s="9">
-        <v>1</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="K42" s="24">
         <v>20</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="9">
-        <v>1022</v>
-      </c>
-      <c r="I42" s="9">
-        <v>105</v>
-      </c>
-      <c r="J42" s="9">
-        <v>2</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A43" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1685,61 +2100,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93B3C66-504D-430E-B2AB-64CD5E1500EA}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="70.5" customWidth="1"/>
-    <col min="4" max="4" width="60.83203125" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
+    <col min="4" max="4" width="79.6640625" customWidth="1"/>
+    <col min="5" max="5" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="104" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D8" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+      <c r="D10" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D11" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+      <c r="D12" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="260" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D15" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="100" x14ac:dyDescent="0.25">
+      <c r="D16" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C17" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="140" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C18" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="D18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>